--- a/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721126641364</t>
+  </si>
+  <si>
+    <t>Creazione_1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.82e982b6d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721127047639</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +135,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
@@ -29,15 +29,24 @@
     <t>IDDOCUMENTO</t>
   </si>
   <si>
+    <t>Sostituzione_0</t>
+  </si>
+  <si>
+    <t>REGIONE_CAMPANIA</t>
+  </si>
+  <si>
+    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1b509e7d15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1713884344811</t>
+  </si>
+  <si>
     <t>Creazione_0</t>
   </si>
   <si>
-    <t>REGIONE_CAMPANIA</t>
-  </si>
-  <si>
-    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a51d2103a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -69,15 +78,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141500182</t>
-  </si>
-  <si>
-    <t>Sostituzione_0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1b509e7d15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1713884344811</t>
   </si>
   <si>
     <t>Aggiornamento_0</t>
@@ -250,7 +250,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>IDDOCUMENTO</t>
+  </si>
+  <si>
+    <t>DATAEVENTO</t>
   </si>
   <si>
     <t>Sostituzione_0</t>
@@ -128,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,107 +153,128 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>45489.70232528935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>45489.70143650463</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>45489.70181196759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>45489.702215509256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>45489.702560578706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>21</v>
+      <c r="F7" t="n" s="0">
+        <v>45489.70259893518</v>
       </c>
     </row>
   </sheetData>

--- a/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,9 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1713884344811</t>
   </si>
   <si>
+    <t>16-07-2024:16:51:20</t>
+  </si>
+  <si>
     <t>Creazione_0</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141400172</t>
   </si>
   <si>
+    <t>16-07-2024:16:50:04</t>
+  </si>
+  <si>
     <t>Creazione_1</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141435449</t>
   </si>
   <si>
+    <t>16-07-2024:16:50:36</t>
+  </si>
+  <si>
     <t>Creazione_2</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141470170</t>
   </si>
   <si>
+    <t>16-07-2024:16:51:11</t>
+  </si>
+  <si>
     <t>Creazione_3</t>
   </si>
   <si>
@@ -83,10 +95,16 @@
     <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141500182</t>
   </si>
   <si>
+    <t>16-07-2024:16:51:41</t>
+  </si>
+  <si>
     <t>Aggiornamento_0</t>
   </si>
   <si>
     <t>5a3654ac74c40fd7eeb0553dac6a14c4eeaf0a1205d05143b8dace63a3aa7b1f.b647ff1b5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:51:44</t>
   </si>
 </sst>
 </file>
@@ -173,13 +191,13 @@
       <c r="E2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>45489.70232528935</v>
+      <c r="F2" t="s" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>7</v>
@@ -188,18 +206,18 @@
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F3" t="n" s="0">
-        <v>45489.70143650463</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -208,18 +226,18 @@
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n" s="0">
-        <v>45489.70181196759</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>7</v>
@@ -228,18 +246,18 @@
         <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F5" t="n" s="0">
-        <v>45489.702215509256</v>
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>7</v>
@@ -248,18 +266,18 @@
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n" s="0">
-        <v>45489.702560578706</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>7</v>
@@ -268,13 +286,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n" s="0">
-        <v>45489.70259893518</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
+++ b/REGIONE_CAMPANIA/integrity:S1#190201234567XX.xlsx
@@ -32,15 +32,72 @@
     <t>DATAEVENTO</t>
   </si>
   <si>
+    <t>Aggiornamento_0</t>
+  </si>
+  <si>
+    <t>REGIONE_CAMPANIA</t>
+  </si>
+  <si>
+    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
+  </si>
+  <si>
+    <t>5a3654ac74c40fd7eeb0553dac6a14c4eeaf0a1205d05143b8dace63a3aa7b1f.b647ff1b5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141500182</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:51:44</t>
+  </si>
+  <si>
+    <t>Creazione_3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e34a162a9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:51:41</t>
+  </si>
+  <si>
+    <t>Creazione_2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.712c5ab71e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141470170</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:51:11</t>
+  </si>
+  <si>
+    <t>Creazione_1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.00d721d81a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141435449</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:50:36</t>
+  </si>
+  <si>
+    <t>Creazione_0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a51d2103a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141400172</t>
+  </si>
+  <si>
+    <t>16-07-2024:16:50:04</t>
+  </si>
+  <si>
     <t>Sostituzione_0</t>
   </si>
   <si>
-    <t>REGIONE_CAMPANIA</t>
-  </si>
-  <si>
-    <t>NGNVCN92S19L259C^^^&amp;2.16.840.1.113883.2.9.4.3.2&amp;ISO</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.1b509e7d15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
@@ -48,63 +105,6 @@
   </si>
   <si>
     <t>16-07-2024:16:51:20</t>
-  </si>
-  <si>
-    <t>Creazione_0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a51d2103a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141400172</t>
-  </si>
-  <si>
-    <t>16-07-2024:16:50:04</t>
-  </si>
-  <si>
-    <t>Creazione_1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.00d721d81a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141435449</t>
-  </si>
-  <si>
-    <t>16-07-2024:16:50:36</t>
-  </si>
-  <si>
-    <t>Creazione_2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.712c5ab71e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141470170</t>
-  </si>
-  <si>
-    <t>16-07-2024:16:51:11</t>
-  </si>
-  <si>
-    <t>Creazione_3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e34a162a9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.110.4.4^UAT_GTW_ID1721141500182</t>
-  </si>
-  <si>
-    <t>16-07-2024:16:51:41</t>
-  </si>
-  <si>
-    <t>Aggiornamento_0</t>
-  </si>
-  <si>
-    <t>5a3654ac74c40fd7eeb0553dac6a14c4eeaf0a1205d05143b8dace63a3aa7b1f.b647ff1b5f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16-07-2024:16:51:44</t>
   </si>
 </sst>
 </file>
@@ -209,87 +209,87 @@
         <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>18</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>29</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>30</v>
